--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_120.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_120.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>InTown Suites Metairie</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Metairie</t>
   </si>
   <si>
@@ -64,78 +142,6 @@
   </si>
   <si>
     <t>18</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -506,34 +512,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>44493</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70001</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -558,76 +583,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E2" t="n">
+        <v>70001</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="H2" t="s">
         <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_120.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_120.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,441 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d256891-r589619736-InTown_Suites_Metairie_Extended_Stay-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40314</t>
+  </si>
+  <si>
+    <t>256891</t>
+  </si>
+  <si>
+    <t>589619736</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Very pleased.</t>
+  </si>
+  <si>
+    <t>I can’t imagine all of the negative reviews. Seems to me as if they were just breaking rules and got upset from being asked to stop. I stay here often for work and always pleased.  The staff is always accommodating and very friendly. Amazing value for the amount of money it costs.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d256891-r573931298-InTown_Suites_Metairie_Extended_Stay-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>573931298</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>Stay only as a last resort</t>
+  </si>
+  <si>
+    <t>Choose this hotel only if you cannot find another location in town to stay. It is a roof over your head but that is the best thing I can say for it.  It is way over priced for what you get. The next time I travel to the NOLA area if this is the only hotel that has rooms available, I will camp out in the swamp instead.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d256891-r565683592-InTown_Suites_Metairie_Extended_Stay-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>565683592</t>
+  </si>
+  <si>
+    <t>03/10/2018</t>
+  </si>
+  <si>
+    <t>Do NOT stay here  I’d give 0 stars if I could</t>
+  </si>
+  <si>
+    <t>This place is disgusting... nothing but a crack hotel. The staff is beyond rude, almost to a point that seems threatening. They lost our reservation and got aggressive when we asked to speak to the manager. This place needs to be shut down.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d256891-r558901488-InTown_Suites_Metairie_Extended_Stay-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>558901488</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>Great Deal</t>
+  </si>
+  <si>
+    <t>It was affordable,the room was clean, the beds were comfortable and the staff members were helpful. Got an extra set of clean towels cause only two sets were provided before. Hot water was available. There was free wifi. The front desk accepted my packages also the receptionist advised me on places to visit and activities to participate in.Only thing was that we had to get our own pots but it wasn't a big deal considering the price. All in all. it was a good place to stay.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d256891-r539789938-InTown_Suites_Metairie_Extended_Stay-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>539789938</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Great Value!</t>
+  </si>
+  <si>
+    <t>Choose this hotel as my preferred hotel after several visits to New Orleans. Just 10 minutes away from the city. Very convenient and not too bad for the price and amenities provided. There are good restaurants close buy and most importantly, the Highway is a small drive away!</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d256891-r470162348-InTown_Suites_Metairie_Extended_Stay-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>470162348</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>Terrible Place-Stay Away!</t>
+  </si>
+  <si>
+    <t>No service from the hotel staff! No amenities-even the basic amenities you would expect from other hotels and/or extended stay places such as toilet paper and towels and clean sheets! Housekeeping staff reuse old bed sheets from previous customers; you can clearly see that the sheets has been used-full of wrinkles and dirt; stove not working; refrigerator is tilting to one side without a leveling leg-very dangerous-it could have fallen forward if my husband didn't find a Listerine mouth rinse cap to level it!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>nancydougherty, General Manager at InTown Suites Metairie Extended Stay, responded to this reviewResponded March 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2017</t>
+  </si>
+  <si>
+    <t>No service from the hotel staff! No amenities-even the basic amenities you would expect from other hotels and/or extended stay places such as toilet paper and towels and clean sheets! Housekeeping staff reuse old bed sheets from previous customers; you can clearly see that the sheets has been used-full of wrinkles and dirt; stove not working; refrigerator is tilting to one side without a leveling leg-very dangerous-it could have fallen forward if my husband didn't find a Listerine mouth rinse cap to level it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d256891-r468427501-InTown_Suites_Metairie_Extended_Stay-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>468427501</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>The Motel is nice for the price. VERY DISAPPOINTED WITH FRONT DESK AND MANGER. I call for two weeks making sure we was getting a Handicap Room. Even called Tues talked to Crystal before check in Thursday she reassure me alone with her Manger that we would get a Handicap Room if not would up grade us to a Queen Handicap. We got the upgrade but not the Hanidcaped room, we could get it the next day but would have to pack up and move ourself the next day. I explained that was too much work while on vacation. Then after check in I guess "being we paid for a week" asked for extra towels and was told we each had one towel and had to wash them ourself. We ran out of toilet paper were told we had to buy any extra toilet paper. I could see if we were living here, but we were on vacation. Crystal and the Manger was very rude. DONT STAY HERE IF ITS YOUR VACATION. Also was told we couldn't get our money back to find something else because we reserved for a weekMoreShow less</t>
+  </si>
+  <si>
+    <t>nancydougherty, General Manager at InTown Suites Metairie Extended Stay, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>The Motel is nice for the price. VERY DISAPPOINTED WITH FRONT DESK AND MANGER. I call for two weeks making sure we was getting a Handicap Room. Even called Tues talked to Crystal before check in Thursday she reassure me alone with her Manger that we would get a Handicap Room if not would up grade us to a Queen Handicap. We got the upgrade but not the Hanidcaped room, we could get it the next day but would have to pack up and move ourself the next day. I explained that was too much work while on vacation. Then after check in I guess "being we paid for a week" asked for extra towels and was told we each had one towel and had to wash them ourself. We ran out of toilet paper were told we had to buy any extra toilet paper. I could see if we were living here, but we were on vacation. Crystal and the Manger was very rude. DONT STAY HERE IF ITS YOUR VACATION. Also was told we couldn't get our money back to find something else because we reserved for a weekMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d256891-r453004810-InTown_Suites_Metairie_Extended_Stay-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>453004810</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>WORST EVER!</t>
+  </si>
+  <si>
+    <t>I agree with the review of Andrea S. Staff has attitude problems to say the least.  Rooms were dirty, and smelled smoke in a non smoking room. Microwave door was broke, chair leg was cracked broke, sink was plugged, and no shower curtain....when complained about it, there was not any apologies and when we decided to cancel after 1 day, the manger would not give us a refund. Also, staff won't replace your towels or give you toilet paper... They told u we had to wash our towels and buy our own toilet paper. The manager was very nasty and not helpful or accommodating at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>nancydougherty, General Manager at InTown Suites Metairie Extended Stay, responded to this reviewResponded January 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2017</t>
+  </si>
+  <si>
+    <t>I agree with the review of Andrea S. Staff has attitude problems to say the least.  Rooms were dirty, and smelled smoke in a non smoking room. Microwave door was broke, chair leg was cracked broke, sink was plugged, and no shower curtain....when complained about it, there was not any apologies and when we decided to cancel after 1 day, the manger would not give us a refund. Also, staff won't replace your towels or give you toilet paper... They told u we had to wash our towels and buy our own toilet paper. The manager was very nasty and not helpful or accommodating at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d256891-r433190646-InTown_Suites_Metairie_Extended_Stay-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>433190646</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>BYPASS PLEASE!!!!!</t>
+  </si>
+  <si>
+    <t>When we arrive to check in the staff have nasty attitudes..no kind of welcome at all.when to the room it look clean.but was not...okay the next day we ask for towels..they don't give clean towels at all an no clean sheets at all.we was told we had to wash them ourselves are go to walmart and buyus some towels an sheets,,really in a hotel really..then on top of all that no pans and pots to cook in at all....the worst hotel ever..den on top of all that they don"t clean your room....</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d256891-r418276980-InTown_Suites_Metairie_Extended_Stay-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>418276980</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>IF IT WASNT FOR THE ROOF CAVING IN....</t>
+  </si>
+  <si>
+    <t>This place is actually affordable and nice for its price.. until one day the roof caved in and water began protruding from the ceiling.  All types of debris was seen floating in maybe 3 inches of water. By the time I went to the office to report what happened and returned to my room, water was coming from the ceiling like a fire hydrant was up there. The fire department rushed me and my girlfriend out of the room and we was placed in another room.. when I went to retrieve my things it was all bagged up and pretty much destroyed.. the front office gave me 20$ for laundry and that's about it. Other than losing my  property to this unfortunate incident it's OK I guess.MoreShow less</t>
+  </si>
+  <si>
+    <t>nancydougherty, General Manager at InTown Suites Metairie Extended Stay, responded to this reviewResponded September 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2016</t>
+  </si>
+  <si>
+    <t>This place is actually affordable and nice for its price.. until one day the roof caved in and water began protruding from the ceiling.  All types of debris was seen floating in maybe 3 inches of water. By the time I went to the office to report what happened and returned to my room, water was coming from the ceiling like a fire hydrant was up there. The fire department rushed me and my girlfriend out of the room and we was placed in another room.. when I went to retrieve my things it was all bagged up and pretty much destroyed.. the front office gave me 20$ for laundry and that's about it. Other than losing my  property to this unfortunate incident it's OK I guess.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d256891-r408620667-InTown_Suites_Metairie_Extended_Stay-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>408620667</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Thanks Jessica H and it's the worst place ever and management is hideous.</t>
+  </si>
+  <si>
+    <t>Supposed to be a hotel with apartment style living and it's nowhere near that. The staff and management is horrible and the rooms are not up to par and just like you see the furniture in the pictures that's the way it is when you check in.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d256891-r405425295-InTown_Suites_Metairie_Extended_Stay-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>405425295</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Worst Hotel Stay Ever</t>
+  </si>
+  <si>
+    <t>My house caught fire and I needed a hotel to stay in. I saw they had weekly rates and they were not far from my house. The room was not ready at 2pm my check in time. It was clean and a/c got cool fast. They do offer wifi and the tv is nice. After one night I realized I had made a huge mistake. I guess because of the fire and the amount of stress I was under I rushed without  considering all options. The pillows had no cases when we entered and the maid came back an hour later to put them on. The door to the bathroom is coming off the hinges. There was mold growing in the corner of the bathroom ceiling. I mean just out right disgusting!!! The furniture is damaged. One of the drawers for the dresser wouldn't close all the way. The night stand is chipped along the edges. Because we paid for a weekly rate they do not supply you with extra towels. You have to wash the 2 sets they gave us for 3 people? I mean come on that's ridiculous. They didn't give us extra toilet tissue. Good thing I brought towels and toilet tissue from my house. Just unpleasant anyway you look at it. They do come clean the room one day out the week. All I can see she did was make our beds. She did change our...My house caught fire and I needed a hotel to stay in. I saw they had weekly rates and they were not far from my house. The room was not ready at 2pm my check in time. It was clean and a/c got cool fast. They do offer wifi and the tv is nice. After one night I realized I had made a huge mistake. I guess because of the fire and the amount of stress I was under I rushed without  considering all options. The pillows had no cases when we entered and the maid came back an hour later to put them on. The door to the bathroom is coming off the hinges. There was mold growing in the corner of the bathroom ceiling. I mean just out right disgusting!!! The furniture is damaged. One of the drawers for the dresser wouldn't close all the way. The night stand is chipped along the edges. Because we paid for a weekly rate they do not supply you with extra towels. You have to wash the 2 sets they gave us for 3 people? I mean come on that's ridiculous. They didn't give us extra toilet tissue. Good thing I brought towels and toilet tissue from my house. Just unpleasant anyway you look at it. They do come clean the room one day out the week. All I can see she did was make our beds. She did change our pillow cases but left the old ones. I will never recommend this hotel for an extended stay! They need major renovations. There was no iron in the room but they had a place where it was clearly missing. The kitchen area was fine. After our fire we are too traumatized to even touch a stove but the microwave worked fine aside from the handle being broken.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>nancydougherty, General Manager at InTown Suites Metairie Extended Stay, responded to this reviewResponded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2016</t>
+  </si>
+  <si>
+    <t>My house caught fire and I needed a hotel to stay in. I saw they had weekly rates and they were not far from my house. The room was not ready at 2pm my check in time. It was clean and a/c got cool fast. They do offer wifi and the tv is nice. After one night I realized I had made a huge mistake. I guess because of the fire and the amount of stress I was under I rushed without  considering all options. The pillows had no cases when we entered and the maid came back an hour later to put them on. The door to the bathroom is coming off the hinges. There was mold growing in the corner of the bathroom ceiling. I mean just out right disgusting!!! The furniture is damaged. One of the drawers for the dresser wouldn't close all the way. The night stand is chipped along the edges. Because we paid for a weekly rate they do not supply you with extra towels. You have to wash the 2 sets they gave us for 3 people? I mean come on that's ridiculous. They didn't give us extra toilet tissue. Good thing I brought towels and toilet tissue from my house. Just unpleasant anyway you look at it. They do come clean the room one day out the week. All I can see she did was make our beds. She did change our...My house caught fire and I needed a hotel to stay in. I saw they had weekly rates and they were not far from my house. The room was not ready at 2pm my check in time. It was clean and a/c got cool fast. They do offer wifi and the tv is nice. After one night I realized I had made a huge mistake. I guess because of the fire and the amount of stress I was under I rushed without  considering all options. The pillows had no cases when we entered and the maid came back an hour later to put them on. The door to the bathroom is coming off the hinges. There was mold growing in the corner of the bathroom ceiling. I mean just out right disgusting!!! The furniture is damaged. One of the drawers for the dresser wouldn't close all the way. The night stand is chipped along the edges. Because we paid for a weekly rate they do not supply you with extra towels. You have to wash the 2 sets they gave us for 3 people? I mean come on that's ridiculous. They didn't give us extra toilet tissue. Good thing I brought towels and toilet tissue from my house. Just unpleasant anyway you look at it. They do come clean the room one day out the week. All I can see she did was make our beds. She did change our pillow cases but left the old ones. I will never recommend this hotel for an extended stay! They need major renovations. There was no iron in the room but they had a place where it was clearly missing. The kitchen area was fine. After our fire we are too traumatized to even touch a stove but the microwave worked fine aside from the handle being broken.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d256891-r369631093-InTown_Suites_Metairie_Extended_Stay-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>369631093</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>Arrogant Incompetent manager = unsecure hotel</t>
+  </si>
+  <si>
+    <t>4409 Hearst St, Metairie, LA 70001 Sun Suites now owned by InTown Suites...came back to my room to find the door propped open and painted with nobody around-all the rooms were open anyone could have taken anything they wanted--I pushed the door open only to get wet paint all over my hand-no signs at all no warning at all-I complained to Nancy the manager who lied and said people wre upstairs watching the rooms and that guests were told the doors would be painted-all lies-I told her I would complain to Intown Suites and ask that she be fired and she said I was not welcome at that hotel anymore and I was asked to check out-so I did and went down the street to Super 8. DO NOT STAY HERE. IN FACT DO NOT STAY AT ANY HOTEL OWNED BY INTOWN SUITES!!!!!!!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2016</t>
+  </si>
+  <si>
+    <t>4409 Hearst St, Metairie, LA 70001 Sun Suites now owned by InTown Suites...came back to my room to find the door propped open and painted with nobody around-all the rooms were open anyone could have taken anything they wanted--I pushed the door open only to get wet paint all over my hand-no signs at all no warning at all-I complained to Nancy the manager who lied and said people wre upstairs watching the rooms and that guests were told the doors would be painted-all lies-I told her I would complain to Intown Suites and ask that she be fired and she said I was not welcome at that hotel anymore and I was asked to check out-so I did and went down the street to Super 8. DO NOT STAY HERE. IN FACT DO NOT STAY AT ANY HOTEL OWNED BY INTOWN SUITES!!!!!!!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d256891-r339003689-InTown_Suites_Metairie_Extended_Stay-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>339003689</t>
+  </si>
+  <si>
+    <t>01/10/2016</t>
+  </si>
+  <si>
+    <t>dirty place, rude and uncaring staff</t>
+  </si>
+  <si>
+    <t>if you're looking for a place to get a good night's sleep at a reasonable price, THIS IS NOT IT.  dirty, staff is very rude, even if you're a paying customer.  they used to be a sun suites which was managed well with a nice staff.  but since intown suites took over, it's really gone down hill.  after staying there, i decided enough was enough and went elsewhere and paid a little more.  it's not worth it. also loud music in the parking lot early in the morning, and you can smell other customers smoking dope all the time as you walk past other rooms.  cops show up often.  avoid even if it's the cheapest. you won't get any rest or comfort thereMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>if you're looking for a place to get a good night's sleep at a reasonable price, THIS IS NOT IT.  dirty, staff is very rude, even if you're a paying customer.  they used to be a sun suites which was managed well with a nice staff.  but since intown suites took over, it's really gone down hill.  after staying there, i decided enough was enough and went elsewhere and paid a little more.  it's not worth it. also loud music in the parking lot early in the morning, and you can smell other customers smoking dope all the time as you walk past other rooms.  cops show up often.  avoid even if it's the cheapest. you won't get any rest or comfort thereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d256891-r320130098-InTown_Suites_Metairie_Extended_Stay-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>320130098</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Absolutely Disgusting !</t>
+  </si>
+  <si>
+    <t>I wouldn't even give this place 1 star ! We arrived around 11:30 pm so the courtesy officer checked us in she was nice even walked us to our room . 1st thing we noticed was the only thing that was done by housekeeping was the bed was made and that was IT !!!! The bathroom was completely disgusting urine on the floor and toilet , pubic hair on the counter and in the shower along with specs of dry blood in the bath the floor had not been mopped in god know's how long  . There was food next to the refrigerator on the floor very visible and ashes in the kitchen drawer btw the room was "non smoking" . So after a trip to Wal-Mart and $70 later in cleaning supplies and a clean bathroom I go to take a shower to find out there is NO hot water !!!! I informed management the next morning and it was no surprise to her she knew there was no hot water in the entire back side of the building but failed to mention this when I booked the room . This place is a complete DUMP I would NOT recommend anyone staying there .MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>I wouldn't even give this place 1 star ! We arrived around 11:30 pm so the courtesy officer checked us in she was nice even walked us to our room . 1st thing we noticed was the only thing that was done by housekeeping was the bed was made and that was IT !!!! The bathroom was completely disgusting urine on the floor and toilet , pubic hair on the counter and in the shower along with specs of dry blood in the bath the floor had not been mopped in god know's how long  . There was food next to the refrigerator on the floor very visible and ashes in the kitchen drawer btw the room was "non smoking" . So after a trip to Wal-Mart and $70 later in cleaning supplies and a clean bathroom I go to take a shower to find out there is NO hot water !!!! I informed management the next morning and it was no surprise to her she knew there was no hot water in the entire back side of the building but failed to mention this when I booked the room . This place is a complete DUMP I would NOT recommend anyone staying there .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d256891-r286348738-InTown_Suites_Metairie_Extended_Stay-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>286348738</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>My friend and I stayed at this this hotel for the Essence Music Festival this past weekend due to the hotels being overprice down New Orleans. Overall we need a place to sleep to the stay was alright.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>My friend and I stayed at this this hotel for the Essence Music Festival this past weekend due to the hotels being overprice down New Orleans. Overall we need a place to sleep to the stay was alright.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d256891-r286108984-InTown_Suites_Metairie_Extended_Stay-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>286108984</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Do NOT stay here</t>
+  </si>
+  <si>
+    <t>The previous review confuses me. It gave this hotel an excellent rating and said it was excellent value. The reviewer obviously travels a lot, based on the number of reviews. We also travel a lot, and we stay in everything from luxurious places to lower-priced hotels. I just can't say "excellent" about anything at this hotel. Yes, it is low-priced (we found a "deal" on the room). And yes, it appeared to be clean. However, everything else fell VERY short of excellent. The furniture is very old with broken handles, sticking drawers, etc. The toilet "appeared" to be clean, but it was so terribly stained that you couldn't really tell. There was no toilet paper or soap in the room, and the office had already closed! On Sundays, there is no one in the office to help you. There were three hangers in the closet for two of us. They gave us a wifi password, but we got NO internet connection in the room. I tried again in the lobby and got very little signal there either. The worst thing was the linens. The towels were so thin and just a little larger than a hand towel. There was no bathmat for the very slippery floor, and no extra towel to step on. Honestly, the towel was the thickness of a washcloth in those very cheap packs at Walmart. AND, you had to turn them in to get new ones....The previous review confuses me. It gave this hotel an excellent rating and said it was excellent value. The reviewer obviously travels a lot, based on the number of reviews. We also travel a lot, and we stay in everything from luxurious places to lower-priced hotels. I just can't say "excellent" about anything at this hotel. Yes, it is low-priced (we found a "deal" on the room). And yes, it appeared to be clean. However, everything else fell VERY short of excellent. The furniture is very old with broken handles, sticking drawers, etc. The toilet "appeared" to be clean, but it was so terribly stained that you couldn't really tell. There was no toilet paper or soap in the room, and the office had already closed! On Sundays, there is no one in the office to help you. There were three hangers in the closet for two of us. They gave us a wifi password, but we got NO internet connection in the room. I tried again in the lobby and got very little signal there either. The worst thing was the linens. The towels were so thin and just a little larger than a hand towel. There was no bathmat for the very slippery floor, and no extra towel to step on. Honestly, the towel was the thickness of a washcloth in those very cheap packs at Walmart. AND, you had to turn them in to get new ones. The location was handy, right at the entrance to the interstate, but there is a bar about a city lot away. Lots going on at night. Not noisy, but lots of people coming and going right around the hotel, including a couple coming in and out of the hotel, and they didn't look like tourists. We saw the same guy with his backpack on late at night and then again the next morning, just hanging out in the parking lot and adjacent lot. Just not a comfortable feeling. We were only staying two nights, and didn't want to pursue our issues with the staff, or we would have left this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>nancydougherty, General Manager at InTown Suites Metairie Extended Stay, responded to this reviewResponded July 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2016</t>
+  </si>
+  <si>
+    <t>The previous review confuses me. It gave this hotel an excellent rating and said it was excellent value. The reviewer obviously travels a lot, based on the number of reviews. We also travel a lot, and we stay in everything from luxurious places to lower-priced hotels. I just can't say "excellent" about anything at this hotel. Yes, it is low-priced (we found a "deal" on the room). And yes, it appeared to be clean. However, everything else fell VERY short of excellent. The furniture is very old with broken handles, sticking drawers, etc. The toilet "appeared" to be clean, but it was so terribly stained that you couldn't really tell. There was no toilet paper or soap in the room, and the office had already closed! On Sundays, there is no one in the office to help you. There were three hangers in the closet for two of us. They gave us a wifi password, but we got NO internet connection in the room. I tried again in the lobby and got very little signal there either. The worst thing was the linens. The towels were so thin and just a little larger than a hand towel. There was no bathmat for the very slippery floor, and no extra towel to step on. Honestly, the towel was the thickness of a washcloth in those very cheap packs at Walmart. AND, you had to turn them in to get new ones....The previous review confuses me. It gave this hotel an excellent rating and said it was excellent value. The reviewer obviously travels a lot, based on the number of reviews. We also travel a lot, and we stay in everything from luxurious places to lower-priced hotels. I just can't say "excellent" about anything at this hotel. Yes, it is low-priced (we found a "deal" on the room). And yes, it appeared to be clean. However, everything else fell VERY short of excellent. The furniture is very old with broken handles, sticking drawers, etc. The toilet "appeared" to be clean, but it was so terribly stained that you couldn't really tell. There was no toilet paper or soap in the room, and the office had already closed! On Sundays, there is no one in the office to help you. There were three hangers in the closet for two of us. They gave us a wifi password, but we got NO internet connection in the room. I tried again in the lobby and got very little signal there either. The worst thing was the linens. The towels were so thin and just a little larger than a hand towel. There was no bathmat for the very slippery floor, and no extra towel to step on. Honestly, the towel was the thickness of a washcloth in those very cheap packs at Walmart. AND, you had to turn them in to get new ones. The location was handy, right at the entrance to the interstate, but there is a bar about a city lot away. Lots going on at night. Not noisy, but lots of people coming and going right around the hotel, including a couple coming in and out of the hotel, and they didn't look like tourists. We saw the same guy with his backpack on late at night and then again the next morning, just hanging out in the parking lot and adjacent lot. Just not a comfortable feeling. We were only staying two nights, and didn't want to pursue our issues with the staff, or we would have left this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d256891-r278338598-InTown_Suites_Metairie_Extended_Stay-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>278338598</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Excellent value!</t>
+  </si>
+  <si>
+    <t>This motel has nice rooms, comfy bed, great A/C, and it is clean.  Everything works and they have a good ice machine!  It is an excellent value, good service.  We stayed here during a 2 week cross country trip from New Mexico to Florida.  Stay here and get dinner to go at Cajun Seafood for a real New Orleans treat.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>This motel has nice rooms, comfy bed, great A/C, and it is clean.  Everything works and they have a good ice machine!  It is an excellent value, good service.  We stayed here during a 2 week cross country trip from New Mexico to Florida.  Stay here and get dinner to go at Cajun Seafood for a real New Orleans treat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d256891-r273138141-InTown_Suites_Metairie_Extended_Stay-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>273138141</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>You get what you pay for...</t>
+  </si>
+  <si>
+    <t>So this was a pretty cheap hotel. If you don't mind the dirtiness, poor customer service, poor maintenance, multiple broken items, etc, then the price is probably worth it.All the rooms were supposed to be non-smoking. We had to ask for a second room because our first one smelled so strongly of smoke and only one of the lights worked. The second room did smell better, but there were still cigarette burns in the comforters, the fan didn't work, and the towels were stained. I have stayed in a motel once where you had to return your towels to get new ones, but at least that motel was nicer about it. I think what bothered me the most though was that when I reserved the room through hotels.com I was asked for my credit card info. This is the usual, "we don't charge you room, it's just to hold it", fine. When I checked in, the first thing they had me do was sign a receipt BECAUSE THEY HAD ALREADY CHARGED THE FIRST NIGHT. And then they charged the second night right away also.MoreShow less</t>
+  </si>
+  <si>
+    <t>nancydougherty, General Manager at InTown Suites Metairie Extended Stay, responded to this reviewResponded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>So this was a pretty cheap hotel. If you don't mind the dirtiness, poor customer service, poor maintenance, multiple broken items, etc, then the price is probably worth it.All the rooms were supposed to be non-smoking. We had to ask for a second room because our first one smelled so strongly of smoke and only one of the lights worked. The second room did smell better, but there were still cigarette burns in the comforters, the fan didn't work, and the towels were stained. I have stayed in a motel once where you had to return your towels to get new ones, but at least that motel was nicer about it. I think what bothered me the most though was that when I reserved the room through hotels.com I was asked for my credit card info. This is the usual, "we don't charge you room, it's just to hold it", fine. When I checked in, the first thing they had me do was sign a receipt BECAUSE THEY HAD ALREADY CHARGED THE FIRST NIGHT. And then they charged the second night right away also.More</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -561,6 +996,1195 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>66</v>
+      </c>
+      <c r="X7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>84</v>
+      </c>
+      <c r="X9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>98</v>
+      </c>
+      <c r="X11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>113</v>
+      </c>
+      <c r="X13" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" t="s">
+        <v>120</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>122</v>
+      </c>
+      <c r="X14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>113</v>
+      </c>
+      <c r="X17" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>151</v>
+      </c>
+      <c r="O18" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>152</v>
+      </c>
+      <c r="X18" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>152</v>
+      </c>
+      <c r="X19" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>160</v>
+      </c>
+      <c r="O20" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>167</v>
+      </c>
+      <c r="X20" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -583,31 +2207,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2">
@@ -615,31 +2239,31 @@
         <v>44493</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="E2" t="n">
         <v>70001</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
